--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>-14.0402525514349</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.100632619059825</v>
+        <v>-9.141506788531693</v>
       </c>
       <c r="F2" t="n">
-        <v>5.418168263392191</v>
+        <v>5.247968326449752</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.84172842923616</v>
+        <v>-15.83071780254627</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.73236069670737</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.465122330173479</v>
+        <v>-9.533739089366964</v>
       </c>
       <c r="F3" t="n">
-        <v>5.301437291255361</v>
+        <v>5.122151296140765</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.36690988207528</v>
+        <v>-15.35147405702489</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.31706681718402</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.539709179462792</v>
+        <v>-9.618407011844408</v>
       </c>
       <c r="F4" t="n">
-        <v>5.470616028576146</v>
+        <v>5.302929813779318</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.62993106281168</v>
+        <v>-14.6299703397202</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.81175338697272</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.47290234141534</v>
+        <v>-10.54124416224915</v>
       </c>
       <c r="F5" t="n">
-        <v>5.537203480829164</v>
+        <v>5.366034713476438</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.75642570951456</v>
+        <v>-13.79599064870225</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.2224734197335</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.05565383320341</v>
+        <v>-11.1222936546678</v>
       </c>
       <c r="F6" t="n">
-        <v>5.772891116585917</v>
+        <v>5.610913145828082</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.97003653932628</v>
+        <v>-13.00062015876455</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.57199467207656</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.82762837796295</v>
+        <v>-11.87647575986543</v>
       </c>
       <c r="F7" t="n">
-        <v>6.076292142640077</v>
+        <v>5.908317897180732</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.74093114854504</v>
+        <v>-11.80545001694906</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.85660708534011</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.61807616203216</v>
+        <v>-12.66185682273489</v>
       </c>
       <c r="F8" t="n">
-        <v>6.318159345338124</v>
+        <v>6.139920734450866</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.05774860165809</v>
+        <v>-11.13844955637449</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.10524535380955</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.310449505514</v>
+        <v>-13.34421455454281</v>
       </c>
       <c r="F9" t="n">
-        <v>6.388150796329992</v>
+        <v>6.211352338755323</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.944510091026119</v>
+        <v>-10.05936886385658</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.320626113279655</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.32866408212072</v>
+        <v>-14.35444282641608</v>
       </c>
       <c r="F10" t="n">
-        <v>6.559450486711135</v>
+        <v>6.38692011986287</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.359951861445893</v>
+        <v>-9.490351197749485</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.520841840448515</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.25493141587</v>
+        <v>-15.28895831095564</v>
       </c>
       <c r="F11" t="n">
-        <v>6.779113143789615</v>
+        <v>6.604749854543508</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.63009525492819</v>
+        <v>-8.784702259186133</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.72417060999056</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.44095003799912</v>
+        <v>-16.44833409680185</v>
       </c>
       <c r="F12" t="n">
-        <v>6.731797561319618</v>
+        <v>6.563168700718186</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.21042148733666</v>
+        <v>-8.371692473741042</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.934107769667303</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.33171104644164</v>
+        <v>-17.31374840694279</v>
       </c>
       <c r="F13" t="n">
-        <v>6.579743556115811</v>
+        <v>6.397158300685099</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.861537801210345</v>
+        <v>-7.995694628429511</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.177772644450247</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.636660147585</v>
+        <v>-18.59683336234047</v>
       </c>
       <c r="F14" t="n">
-        <v>6.651463191082787</v>
+        <v>6.491475250356894</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.977768082485309</v>
+        <v>-7.126863227246886</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.456696362872004</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.68600822034934</v>
+        <v>-19.63459474708988</v>
       </c>
       <c r="F15" t="n">
-        <v>6.592940597380271</v>
+        <v>6.420279307503588</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.505790565041084</v>
+        <v>-6.651665003303597</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.783885819766149</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.64958861719754</v>
+        <v>-20.59731105195053</v>
       </c>
       <c r="F16" t="n">
-        <v>6.513810719004879</v>
+        <v>6.347800318971792</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.91632272189521</v>
+        <v>-6.06908371145247</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.16541172403099</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.658560027998</v>
+        <v>-21.5843528554911</v>
       </c>
       <c r="F17" t="n">
-        <v>6.812184300767815</v>
+        <v>6.642036733036743</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.913232938424563</v>
+        <v>-6.038997599522183</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.596155597394384</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.48854656664923</v>
+        <v>-22.40328949054391</v>
       </c>
       <c r="F18" t="n">
-        <v>7.153448266640248</v>
+        <v>6.967537566287738</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.40645608002703</v>
+        <v>-5.543545583082744</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.086529448254592</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.09976072481521</v>
+        <v>-23.01301112618593</v>
       </c>
       <c r="F19" t="n">
-        <v>7.465123628090378</v>
+        <v>7.28052215802204</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.527910190135844</v>
+        <v>-4.660941079310622</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.629066616704972</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.98624055022848</v>
+        <v>-23.89510503014722</v>
       </c>
       <c r="F20" t="n">
-        <v>7.662005678224255</v>
+        <v>7.469339349605414</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.00102355457342</v>
+        <v>-4.10797457648748</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.230951568563725</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.21742443380768</v>
+        <v>-24.16083950092574</v>
       </c>
       <c r="F21" t="n">
-        <v>7.538047754918792</v>
+        <v>7.35370813090729</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.91978581544051</v>
+        <v>-4.01202108896047</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.895759737643812</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.89759575104103</v>
+        <v>-24.84201892547791</v>
       </c>
       <c r="F22" t="n">
-        <v>7.921442751335898</v>
+        <v>7.732756482780943</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.230806561748555</v>
+        <v>-4.297027429522005</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.624229295019226</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.08624274268746</v>
+        <v>-25.04879875656012</v>
       </c>
       <c r="F23" t="n">
-        <v>7.604111515058142</v>
+        <v>7.429512564360883</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.100682163804639</v>
+        <v>-4.16046161857996</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.426235986955851</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.48478553349245</v>
+        <v>-25.44501111745928</v>
       </c>
       <c r="F24" t="n">
-        <v>7.569312174104835</v>
+        <v>7.392566085741533</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.932891210585078</v>
+        <v>-3.979735470152774</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.296214779429378</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58250648190309</v>
+        <v>-25.56138859741938</v>
       </c>
       <c r="F25" t="n">
-        <v>7.671536874693031</v>
+        <v>7.487799496612248</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.837225753720586</v>
+        <v>-3.889477134361914</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.2360910590712</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.91793128070811</v>
+        <v>-25.90123859458491</v>
       </c>
       <c r="F26" t="n">
-        <v>7.579838385589582</v>
+        <v>7.399740667698798</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.63944033469063</v>
+        <v>-3.687737839873757</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.238470582680515</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.84276837009376</v>
+        <v>-25.81280008888905</v>
       </c>
       <c r="F27" t="n">
-        <v>7.535952986464117</v>
+        <v>7.366486218480814</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.71870113609444</v>
+        <v>-3.751837754586848</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.292565694232333</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.81374273469365</v>
+        <v>-25.79330564995772</v>
       </c>
       <c r="F28" t="n">
-        <v>7.379028644603188</v>
+        <v>7.199088034346505</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.928649304464359</v>
+        <v>-3.955449248381372</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.391579324845574</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7685742898897</v>
+        <v>-25.77873391689488</v>
       </c>
       <c r="F29" t="n">
-        <v>7.335405091534557</v>
+        <v>7.159051772256507</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.699874404608037</v>
+        <v>-3.717195521267641</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.519091662511507</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.61624534632622</v>
+        <v>-25.61970171427643</v>
       </c>
       <c r="F30" t="n">
-        <v>7.441190898495703</v>
+        <v>7.266146809501826</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.876358646914505</v>
+        <v>-3.900396114931914</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.66850086127493</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.2645075381804</v>
+        <v>-25.25805303287943</v>
       </c>
       <c r="F31" t="n">
-        <v>7.27164557669535</v>
+        <v>7.098198748648163</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.233830883704993</v>
+        <v>-4.243545372413554</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.828865850931992</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.85474464384006</v>
+        <v>-24.85418167481787</v>
       </c>
       <c r="F32" t="n">
-        <v>7.372325385548224</v>
+        <v>7.185105454911541</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.175845074418988</v>
+        <v>-4.19861258906075</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.993195324113471</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.6937616880982</v>
+        <v>-24.69046242778208</v>
       </c>
       <c r="F33" t="n">
-        <v>7.35522683803693</v>
+        <v>7.155909619574492</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.324102311798694</v>
+        <v>-4.350470209721931</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.161616390305748</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.28090901028721</v>
+        <v>-24.26861533791883</v>
       </c>
       <c r="F34" t="n">
-        <v>7.464495197553975</v>
+        <v>7.26200964180384</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.361611759440239</v>
+        <v>-4.389642379824375</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.330074389890103</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.16297354628894</v>
+        <v>-24.16154648527919</v>
       </c>
       <c r="F35" t="n">
-        <v>7.363658281067001</v>
+        <v>7.1614345713737</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.526574775245988</v>
+        <v>-4.553125965409008</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.506080134655388</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.78308728703342</v>
+        <v>-23.76718013908072</v>
       </c>
       <c r="F36" t="n">
-        <v>7.505133705574693</v>
+        <v>7.301417473357436</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.499316600729514</v>
+        <v>-4.540426431652534</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.692035339866498</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.24016258048988</v>
+        <v>-23.23698115089934</v>
       </c>
       <c r="F37" t="n">
-        <v>7.478294484749155</v>
+        <v>7.277301451522976</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.619791971479078</v>
+        <v>-4.662459786440263</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.893338954609749</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.71386509855533</v>
+        <v>-22.70125721091875</v>
       </c>
       <c r="F38" t="n">
-        <v>7.412021247764337</v>
+        <v>7.193929667026865</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.538030540232499</v>
+        <v>-4.564162776704584</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.117301613625185</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.52335899990538</v>
+        <v>-22.50792317485498</v>
       </c>
       <c r="F39" t="n">
-        <v>7.594711241617783</v>
+        <v>7.382354089524986</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.71689758165616</v>
+        <v>-4.723325902351448</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.361649408374111</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.81945133761997</v>
+        <v>-21.80290266682803</v>
       </c>
       <c r="F40" t="n">
-        <v>7.840872719647916</v>
+        <v>7.617832248436271</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.701697418056916</v>
+        <v>-4.718298458060224</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.632257506483744</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.16881625559756</v>
+        <v>-21.16063356632148</v>
       </c>
       <c r="F41" t="n">
-        <v>7.840401396745614</v>
+        <v>7.622912061938861</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.71993499591544</v>
+        <v>-4.733498621659469</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.922572550351593</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.44911927608503</v>
+        <v>-20.43407622011989</v>
       </c>
       <c r="F42" t="n">
-        <v>7.879442643819641</v>
+        <v>7.67562167317965</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.067352344123483</v>
+        <v>-5.082617969236936</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.228715813630934</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.65351312469618</v>
+        <v>-19.6564065236242</v>
       </c>
       <c r="F43" t="n">
-        <v>7.982426697972659</v>
+        <v>7.774285267394897</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.220479918160311</v>
+        <v>-5.233428205670778</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.546163325967023</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.94296766487002</v>
+        <v>-18.93729869773955</v>
       </c>
       <c r="F44" t="n">
-        <v>7.805261655918422</v>
+        <v>7.615370895502027</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.040316738755319</v>
+        <v>-5.064026899201685</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.861921027786206</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.51960186787713</v>
+        <v>-18.52836061847824</v>
       </c>
       <c r="F45" t="n">
-        <v>7.828382662736909</v>
+        <v>7.629327290331307</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.279565480885021</v>
+        <v>-5.318541266444839</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.176122978034273</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.7984909196577</v>
+        <v>-17.79156509145442</v>
       </c>
       <c r="F46" t="n">
-        <v>7.962238366990717</v>
+        <v>7.782847633453386</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.422860735487713</v>
+        <v>-5.464337150890302</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.477104440239154</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.63220558126493</v>
+        <v>-17.61755529438504</v>
       </c>
       <c r="F47" t="n">
-        <v>7.815368913712234</v>
+        <v>7.633307350395191</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.709961844503924</v>
+        <v>-5.748125907287555</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.763566447529527</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.0146678408264</v>
+        <v>-17.00899887369593</v>
       </c>
       <c r="F48" t="n">
-        <v>7.787822708533242</v>
+        <v>7.614428249697422</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.800036888055</v>
+        <v>-5.837493966485177</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.034240607582301</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.16543561699784</v>
+        <v>-16.16713761636726</v>
       </c>
       <c r="F49" t="n">
-        <v>7.733515836345763</v>
+        <v>7.565541590886417</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.073967140412434</v>
+        <v>-6.129125012284626</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.281978607230863</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.60325213297412</v>
+        <v>-15.60268916395193</v>
       </c>
       <c r="F50" t="n">
-        <v>7.480703468472032</v>
+        <v>7.312231715504701</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.292359844115266</v>
+        <v>-6.344807609299221</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.51455372090479</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.8833063997076</v>
+        <v>-14.88166986185239</v>
       </c>
       <c r="F51" t="n">
-        <v>7.343443765479376</v>
+        <v>7.188745115101541</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.248081675904549</v>
+        <v>-6.301982686703935</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.724523443308693</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.22554910493928</v>
+        <v>-14.23243565623403</v>
       </c>
       <c r="F52" t="n">
-        <v>7.233677898454345</v>
+        <v>7.086834629781545</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.477471913994432</v>
+        <v>-6.549322471989824</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.918284886067774</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.73495433285413</v>
+        <v>-13.7409375152528</v>
       </c>
       <c r="F53" t="n">
-        <v>7.262795179974344</v>
+        <v>7.110348405685285</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.509325486808351</v>
+        <v>-6.583048244110111</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.09740202374681</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.25915386298012</v>
+        <v>-13.25310521906724</v>
       </c>
       <c r="F54" t="n">
-        <v>7.040121293242267</v>
+        <v>6.885841596555367</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.72245508476881</v>
+        <v>-6.791831197527116</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.258124001888143</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.65867539314435</v>
+        <v>-12.65093784216489</v>
       </c>
       <c r="F55" t="n">
-        <v>7.039361939677447</v>
+        <v>6.897650853718604</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.032284431518256</v>
+        <v>-7.094616885347715</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.411348760770252</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.39278381473174</v>
+        <v>-12.39122583069357</v>
       </c>
       <c r="F56" t="n">
-        <v>7.053527811352194</v>
+        <v>6.900871560217668</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.012672161861351</v>
+        <v>-7.0858581347466</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.548952315807986</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95102333224622</v>
+        <v>-11.9557889304806</v>
       </c>
       <c r="F57" t="n">
-        <v>6.71747458201077</v>
+        <v>6.573459250751783</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.265903483426017</v>
+        <v>-7.344195454419538</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.682538364513498</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.5310091647808</v>
+        <v>-11.53815756213238</v>
       </c>
       <c r="F58" t="n">
-        <v>6.863322835667597</v>
+        <v>6.715982059486812</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.958028073153866</v>
+        <v>-8.013788190956777</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.814097299889047</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.45818977637512</v>
+        <v>-11.44868476451203</v>
       </c>
       <c r="F59" t="n">
-        <v>6.714489536962856</v>
+        <v>6.566520330245668</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.98924012312854</v>
+        <v>-8.054937298788321</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.943070471675726</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.20391107058312</v>
+        <v>-11.1869303537974</v>
       </c>
       <c r="F60" t="n">
-        <v>6.583278477883077</v>
+        <v>6.441933976403803</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.23506120128479</v>
+        <v>-8.302159253348636</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.08239513516223</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.26346795621013</v>
+        <v>-11.24813686958247</v>
       </c>
       <c r="F61" t="n">
-        <v>6.417346631667041</v>
+        <v>6.279694159589133</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.706855426489229</v>
+        <v>-8.77285372511437</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.221887224017685</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.29016316170441</v>
+        <v>-11.2535439906561</v>
       </c>
       <c r="F62" t="n">
-        <v>6.394173255637186</v>
+        <v>6.23727509838194</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.914119672776595</v>
+        <v>-8.97340162004393</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.374708321735408</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.9449845972823</v>
+        <v>-10.91352379355363</v>
       </c>
       <c r="F63" t="n">
-        <v>6.685031855568973</v>
+        <v>6.516010225882289</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.939479463381018</v>
+        <v>-8.991770120930873</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.537731285340724</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.74846913162799</v>
+        <v>-10.73791673553756</v>
       </c>
       <c r="F64" t="n">
-        <v>6.531668620080993</v>
+        <v>6.363694374621647</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.153499337934715</v>
+        <v>-9.201508812455323</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.708359004433952</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.80552538741224</v>
+        <v>-10.80318186520357</v>
       </c>
       <c r="F65" t="n">
-        <v>6.499697216541498</v>
+        <v>6.327900018652368</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.226554387791547</v>
+        <v>-9.276344415498631</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.894002704314996</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.52435509158333</v>
+        <v>-10.52408015322365</v>
       </c>
       <c r="F66" t="n">
-        <v>6.355420039225677</v>
+        <v>6.196531851938489</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.58384333234225</v>
+        <v>-9.621090933926961</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.078143443637298</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77134138469249</v>
+        <v>-10.77356707617558</v>
       </c>
       <c r="F67" t="n">
-        <v>6.10043434908022</v>
+        <v>5.936152133022241</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.634837851910774</v>
+        <v>-9.671496299867606</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.268162619459789</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.88481237342173</v>
+        <v>-10.87135348610043</v>
       </c>
       <c r="F68" t="n">
-        <v>6.073019066929645</v>
+        <v>5.909574758253537</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.463564346135312</v>
+        <v>-9.503613700528152</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.451064418236832</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.67711608114059</v>
+        <v>-10.66251816347206</v>
       </c>
       <c r="F69" t="n">
-        <v>6.105645085611227</v>
+        <v>5.955214525959795</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.509465959898405</v>
+        <v>-9.563353878394949</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.619252454199827</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.92238728257748</v>
+        <v>-10.90390095096496</v>
       </c>
       <c r="F70" t="n">
-        <v>5.858305300325338</v>
+        <v>5.69274003858887</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.577074611773078</v>
+        <v>-9.613248644524766</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.772711997127493</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.90043149071191</v>
+        <v>-10.88723444944745</v>
       </c>
       <c r="F71" t="n">
-        <v>5.595647520714629</v>
+        <v>5.457261879677585</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.559007233851496</v>
+        <v>-9.600143249380199</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.892412021864688</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.96746408126154</v>
+        <v>-10.96416482094543</v>
       </c>
       <c r="F72" t="n">
-        <v>5.780903605925054</v>
+        <v>5.623350833527722</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.803021574215586</v>
+        <v>-9.831366409867924</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.9851817725625</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.40495647302066</v>
+        <v>-11.39978501339818</v>
       </c>
       <c r="F73" t="n">
-        <v>5.872942494902388</v>
+        <v>5.706329848938582</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.590716791334156</v>
+        <v>-9.638110927621204</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.03724522643393</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.51844055405275</v>
+        <v>-11.50782269644811</v>
       </c>
       <c r="F74" t="n">
-        <v>5.879802861591452</v>
+        <v>5.72945085575707</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.639786742384945</v>
+        <v>-9.678343574253828</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.04543455498652</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.03621494683733</v>
+        <v>-12.02144682923186</v>
       </c>
       <c r="F75" t="n">
-        <v>5.815572023849944</v>
+        <v>5.65602922142067</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.76709629521789</v>
+        <v>-9.791015932509724</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.01083355798655</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99420174701823</v>
+        <v>-12.00124540594708</v>
       </c>
       <c r="F76" t="n">
-        <v>5.706827356446567</v>
+        <v>5.548750891935566</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.786355072698068</v>
+        <v>-9.799944883047781</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.919933053927277</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.65085928834784</v>
+        <v>-12.64338358342522</v>
       </c>
       <c r="F77" t="n">
-        <v>5.697243790766424</v>
+        <v>5.548672338118516</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.566208000414445</v>
+        <v>-9.588059053857286</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.784374293065502</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.3454976002213</v>
+        <v>-13.33609732678094</v>
       </c>
       <c r="F78" t="n">
-        <v>5.772157947626781</v>
+        <v>5.628640123875779</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.992882966672418</v>
+        <v>-9.033678582327237</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.595513038589166</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.65463305492014</v>
+        <v>-13.66214803675129</v>
       </c>
       <c r="F79" t="n">
-        <v>5.968725782492456</v>
+        <v>5.826229158363109</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.156065429291692</v>
+        <v>-9.177615359769174</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.35883910775622</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.24069689932716</v>
+        <v>-14.24330226759267</v>
       </c>
       <c r="F80" t="n">
-        <v>5.991768235493893</v>
+        <v>5.85589631660246</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.59968183542686</v>
+        <v>-8.631339023698153</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.080158649700246</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.83351637200052</v>
+        <v>-14.83596463263192</v>
       </c>
       <c r="F81" t="n">
-        <v>6.057439226547991</v>
+        <v>5.908579743237566</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.479442126128447</v>
+        <v>-8.518169157934274</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.754077562499509</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.68577291778552</v>
+        <v>-15.68884960895332</v>
       </c>
       <c r="F82" t="n">
-        <v>6.046572615189358</v>
+        <v>5.88964827332843</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.372923150208164</v>
+        <v>-8.41347001210899</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.398420321055928</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.73059105376663</v>
+        <v>-16.74046265010929</v>
       </c>
       <c r="F83" t="n">
-        <v>6.225649133458488</v>
+        <v>6.068384391723674</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.218028115287703</v>
+        <v>-8.250195903369825</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.010696835722031</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.70730303036508</v>
+        <v>-17.73766408065504</v>
       </c>
       <c r="F84" t="n">
-        <v>6.157752450921296</v>
+        <v>5.998078725463605</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.848039636980524</v>
+        <v>-7.875507288342466</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.605865359359975</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.56295048258608</v>
+        <v>-18.59138696435831</v>
       </c>
       <c r="F85" t="n">
-        <v>6.418001246809127</v>
+        <v>6.272676685265968</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.648814064637979</v>
+        <v>-7.684294205339056</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.196077741971829</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.83370248870686</v>
+        <v>-19.85792324896405</v>
       </c>
       <c r="F86" t="n">
-        <v>6.292629354796759</v>
+        <v>6.150185099878779</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.639387606591936</v>
+        <v>-7.661775444451288</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.786864449149891</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.89141654298706</v>
+        <v>-20.9182557638126</v>
       </c>
       <c r="F87" t="n">
-        <v>6.351989855881144</v>
+        <v>6.201323634778561</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.155666293498683</v>
+        <v>-7.196317893822243</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.401894045538929</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.30641954181797</v>
+        <v>-22.35762353823197</v>
       </c>
       <c r="F88" t="n">
-        <v>6.635490581615881</v>
+        <v>6.476209625243442</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.209174535212818</v>
+        <v>-7.24643522910037</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.043001982145112</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.90267238118974</v>
+        <v>-23.93584827659068</v>
       </c>
       <c r="F89" t="n">
-        <v>6.492758296035383</v>
+        <v>6.340520998591792</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.876342012370458</v>
+        <v>-6.912385122093729</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.727591590018782</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.23321693438868</v>
+        <v>-25.29499951149878</v>
       </c>
       <c r="F90" t="n">
-        <v>6.746932263404653</v>
+        <v>6.580188694412429</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.268181544120477</v>
+        <v>-7.297455933274577</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.461029356244767</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.97412662785868</v>
+        <v>-27.03436431323346</v>
       </c>
       <c r="F91" t="n">
-        <v>6.883615905072273</v>
+        <v>6.73014793116156</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.796518241944454</v>
+        <v>-6.823305093558625</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.241423832558825</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.96646090510118</v>
+        <v>-29.02697352883564</v>
       </c>
       <c r="F92" t="n">
-        <v>6.639549195496816</v>
+        <v>6.499121155216462</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.056387361049874</v>
+        <v>-7.083828827806133</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.07570513671861</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.83492890515812</v>
+        <v>-30.89681622069096</v>
       </c>
       <c r="F93" t="n">
-        <v>6.640596579724154</v>
+        <v>6.488882974394232</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.405071479279686</v>
+        <v>-6.458933213170547</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.948921964580546</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.85390601868354</v>
+        <v>-32.92639809951817</v>
       </c>
       <c r="F94" t="n">
-        <v>6.621010494672932</v>
+        <v>6.479247039502722</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.711588473410177</v>
+        <v>-6.746937691082837</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.86059402007989</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.15146115207521</v>
+        <v>-35.20939459214984</v>
       </c>
       <c r="F95" t="n">
-        <v>6.553820796489194</v>
+        <v>6.398650823209056</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.141575792287107</v>
+        <v>-6.195961218291638</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.796254149557114</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.56569488839234</v>
+        <v>-37.61768442297683</v>
       </c>
       <c r="F96" t="n">
-        <v>6.354974900929058</v>
+        <v>6.213892245506618</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.099078177262864</v>
+        <v>-6.161188061944013</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.741904649578083</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.58002423440894</v>
+        <v>-39.64260544199239</v>
       </c>
       <c r="F97" t="n">
-        <v>6.256442229742228</v>
+        <v>6.103157548071299</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.689393836739573</v>
+        <v>-5.751281152272411</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.687227222620208</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.00406410555452</v>
+        <v>-42.06981365042567</v>
       </c>
       <c r="F98" t="n">
-        <v>6.176238782533813</v>
+        <v>6.023765823639072</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.879048935704816</v>
+        <v>-5.941158820385964</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.614941269188097</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.29398642638946</v>
+        <v>-44.33462493441018</v>
       </c>
       <c r="F99" t="n">
-        <v>6.022168562692381</v>
+        <v>5.875403847836632</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.607959713064036</v>
+        <v>-5.668707998249645</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.515680941863935</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.42803178959081</v>
+        <v>-46.47213975786458</v>
       </c>
       <c r="F100" t="n">
-        <v>5.750974601628868</v>
+        <v>5.60292684109463</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.683292823615328</v>
+        <v>-5.747222538391476</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.388308711153237</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.88565341752542</v>
+        <v>-48.9407458278834</v>
       </c>
       <c r="F101" t="n">
-        <v>5.695175206917431</v>
+        <v>5.535946619756358</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.728736206778959</v>
+        <v>-5.801149733796546</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.214191341522854</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.28586529749906</v>
+        <v>-51.3172868243192</v>
       </c>
       <c r="F102" t="n">
-        <v>5.045430401488249</v>
+        <v>4.911862727896961</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.403392481162066</v>
+        <v>-5.474666977832423</v>
       </c>
     </row>
   </sheetData>
